--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -94,7 +94,7 @@
     <t>中</t>
   </si>
   <si>
-    <t>进行中</t>
+    <t>未完成</t>
   </si>
   <si>
     <r>
@@ -132,6 +132,9 @@
     <t>低</t>
   </si>
   <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>已经在线提交了</t>
   </si>
   <si>
@@ -185,9 +188,6 @@
   </si>
   <si>
     <t>超市采购生活用品</t>
-  </si>
-  <si>
-    <t>未完成</t>
   </si>
   <si>
     <t>记得买鸡蛋和牛奶</t>
@@ -923,7 +923,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -970,13 +970,6 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="6" tint="0.8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1180,25 +1173,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstColumn" dxfId="12"/>
-      <tableStyleElement type="lastColumn" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="totalRow" dxfId="24"/>
-      <tableStyleElement type="firstRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="21"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="20"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="19"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="18"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="17"/>
-      <tableStyleElement type="pageFieldValues" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="20"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="18"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="17"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="16"/>
+      <tableStyleElement type="pageFieldValues" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1462,7 +1455,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1543,7 +1536,7 @@
       </c>
       <c r="G3" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>进行中</v>
+        <v>未完成</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:7">
@@ -1558,22 +1551,22 @@
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>已完成</v>
+        <v>已逾期</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
-        <v>46045</v>
+        <v>46051</v>
       </c>
       <c r="C5" s="4">
         <v>0.625</v>
@@ -1585,19 +1578,19 @@
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>已逾期</v>
+        <v>未完成</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
-        <v>46047</v>
+        <v>46050</v>
       </c>
       <c r="C6" s="4">
         <v>0.770833333333333</v>
@@ -1606,14 +1599,14 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>已逾期</v>
+        <v>已完成</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:7">
@@ -1628,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -1688,7 +1681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$G2="已逾期"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1614,7 +1614,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="3">
-        <v>46048</v>
+        <v>46052</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="G7" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>已逾期</v>
+        <v>进行中</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -56,7 +56,7 @@
     <t>高</t>
   </si>
   <si>
-    <t>已完成</t>
+    <t>进行中</t>
   </si>
   <si>
     <r>
@@ -132,9 +132,6 @@
     <t>低</t>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>已经在线提交了</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>超市采购生活用品</t>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
   <si>
     <t>记得买鸡蛋和牛奶</t>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1496,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="3">
-        <v>46044.6666666667</v>
+        <v>46052.6666666667</v>
       </c>
       <c r="C2" s="4">
         <v>0.666666666666667</v>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="G2" s="6" t="str">
         <f ca="1" t="shared" ref="G2:G7" si="0">IF(E2="已完成","已完成",IF(NOW()&gt;(B2+C2),"已逾期",E2))</f>
-        <v>已完成</v>
+        <v>进行中</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
@@ -1520,7 +1520,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <v>46050</v>
+        <v>46052</v>
       </c>
       <c r="C3" s="4">
         <v>0.583333333333333</v>
@@ -1544,26 +1544,26 @@
         <v>15</v>
       </c>
       <c r="B4" s="7">
-        <v>46046</v>
+        <v>46077</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G4" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>已逾期</v>
+        <v>进行中</v>
       </c>
     </row>
     <row r="5" ht="31.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>46051</v>
@@ -1578,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3">
         <v>46050</v>
@@ -1599,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>22</v>
@@ -1621,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>任务名称</t>
   </si>
@@ -59,33 +59,7 @@
     <t>进行中</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要在周四下午</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前完成</t>
-    </r>
+    <t>急</t>
   </si>
   <si>
     <t>牙医检查</t>
@@ -185,9 +159,6 @@
   </si>
   <si>
     <t>超市采购生活用品</t>
-  </si>
-  <si>
-    <t>已完成</t>
   </si>
   <si>
     <t>记得买鸡蛋和牛奶</t>
@@ -1455,7 +1426,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1464,7 +1435,7 @@
     <col min="2" max="2" width="36.0530973451327" customWidth="1"/>
     <col min="3" max="3" width="9.02654867256637" style="1"/>
     <col min="5" max="5" width="12.1504424778761" customWidth="1"/>
-    <col min="6" max="6" width="41.4159292035398" customWidth="1"/>
+    <col min="6" max="6" width="46.2743362831858" customWidth="1"/>
     <col min="7" max="7" width="13.4867256637168" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1599,22 +1570,22 @@
         <v>12</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="G6" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>已完成</v>
+        <v>未完成</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
-        <v>46052</v>
+        <v>46049</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
@@ -1624,11 +1595,11 @@
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>进行中</v>
+        <v>已逾期</v>
       </c>
     </row>
   </sheetData>

--- a/tasks.xlsx
+++ b/tasks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>任务名称</t>
   </si>
@@ -56,7 +56,7 @@
     <t>高</t>
   </si>
   <si>
-    <t>进行中</t>
+    <t>未完成</t>
   </si>
   <si>
     <t>急</t>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>中</t>
-  </si>
-  <si>
-    <t>未完成</t>
   </si>
   <si>
     <r>
@@ -106,6 +103,9 @@
     <t>低</t>
   </si>
   <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>已经在线提交了</t>
   </si>
   <si>
@@ -169,6 +169,12 @@
   <si>
     <t>报销用，不紧急</t>
   </si>
+  <si>
+    <t>申请补贴</t>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
 </sst>
 </file>
 
@@ -541,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -561,6 +567,34 @@
       </top>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,7 +722,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,34 +734,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +875,38 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" uri="{F19249F5-4A6E-446B-B59F-E2C9F2DAA1D5}">
+          <etc:displayText val="2"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1423,13 +1489,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="19.716814159292" customWidth="1"/>
     <col min="2" max="2" width="36.0530973451327" customWidth="1"/>
@@ -1483,7 +1549,7 @@
       </c>
       <c r="G2" s="6" t="str">
         <f ca="1" t="shared" ref="G2:G7" si="0">IF(E2="已完成","已完成",IF(NOW()&gt;(B2+C2),"已逾期",E2))</f>
-        <v>进行中</v>
+        <v>未完成</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:7">
@@ -1500,10 +1566,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G3" s="6" t="str">
         <f ca="1" t="shared" si="0"/>
@@ -1512,17 +1578,17 @@
     </row>
     <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7">
         <v>46077</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
@@ -1546,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>19</v>
@@ -1556,23 +1622,23 @@
         <v>未完成</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="15.75" spans="1:7">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
-        <v>46050</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="9">
+        <v>46053</v>
+      </c>
+      <c r="C6" s="10">
         <v>0.770833333333333</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="6" t="str">
@@ -1581,20 +1647,20 @@
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="13">
         <v>46049</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="6" t="str">
@@ -1602,25 +1668,53 @@
         <v>已逾期</v>
       </c>
     </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="13">
+        <v>46052</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="6" t="str">
+        <f ca="1">IF(E8="已完成","已完成",IF(NOW()&gt;(B8+C8),"已逾期",E8))</f>
+        <v>已完成</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"进行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>$E2="已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"进行中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$E8="已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E$1:E$1048576">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1630,33 +1724,36 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"未开始"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E1048576">
-    <cfRule type="expression" dxfId="1" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>$E2="已完成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$E2="进行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$E2="进行中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$E2="未完成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$E2="已逾期"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$G2="已逾期"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 D7:D8 D9:D1048576">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"已完成,未完成,进行中,已逾期"</formula1>
     </dataValidation>
